--- a/uml2es/examples/hrexcel/HRExcel.xlsx
+++ b/uml2es/examples/hrexcel/HRExcel.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="113">
   <si>
     <t>Description</t>
   </si>
@@ -1725,8 +1725,8 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2158,7 +2158,9 @@
       <c r="A37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D37">
         <v>1</v>
       </c>
@@ -2210,7 +2212,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C20:C26"/>
   </dataValidations>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/uml2es/examples/hrexcel/HRExcel.xlsx
+++ b/uml2es/examples/hrexcel/HRExcel.xlsx
@@ -663,9 +663,6 @@
     <t>empIRI</t>
   </si>
   <si>
-    <t>emlLabel</t>
-  </si>
-  <si>
     <t>employeeName</t>
   </si>
   <si>
@@ -699,6 +696,9 @@
   <si>
     <t>"http://www.w3.org/ns/org#e"
 employeeId</t>
+  </si>
+  <si>
+    <t>empLabel</t>
   </si>
 </sst>
 </file>
@@ -1726,7 +1726,7 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -2033,7 +2033,7 @@
         <v>95</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -2111,12 +2111,12 @@
         <v>45</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>43</v>
@@ -2131,7 +2131,7 @@
         <v>45</v>
       </c>
       <c r="Q35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="39" x14ac:dyDescent="0.15">
@@ -2151,12 +2151,12 @@
         <v>45</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="39" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>43</v>
@@ -2168,18 +2168,18 @@
         <v>45</v>
       </c>
       <c r="M37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P37" t="s">
         <v>82</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>85</v>
@@ -2191,12 +2191,12 @@
         <v>45</v>
       </c>
       <c r="M38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>55</v>
@@ -2208,7 +2208,7 @@
         <v>45</v>
       </c>
       <c r="M39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/uml2es/examples/hrexcel/HRExcel.xlsx
+++ b/uml2es/examples/hrexcel/HRExcel.xlsx
@@ -607,11 +607,6 @@
 departmentId</t>
   </si>
   <si>
-    <t>"/department"
-departmentId
-".xml"</t>
-  </si>
-  <si>
     <t>Employee</t>
   </si>
   <si>
@@ -699,6 +694,11 @@
   </si>
   <si>
     <t>empLabel</t>
+  </si>
+  <si>
+    <t>"/department/"
+departmentId
+".xml"</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1377,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1654,7 +1654,7 @@
         <v>45</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>65</v>
@@ -1725,8 +1725,8 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1756,7 +1756,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1788,7 +1788,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1802,7 +1802,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1922,7 +1922,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="1" t="s">
@@ -1943,7 +1943,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
@@ -1955,7 +1955,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
@@ -1971,7 +1971,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
@@ -1983,11 +1983,11 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
@@ -1995,11 +1995,11 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
@@ -2019,7 +2019,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>74</v>
@@ -2030,10 +2030,10 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>56</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>66</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>69</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>56</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>43</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="34" spans="1:17" ht="26" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>43</v>
@@ -2111,12 +2111,12 @@
         <v>45</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>43</v>
@@ -2130,8 +2130,11 @@
       <c r="L35" t="s">
         <v>45</v>
       </c>
+      <c r="M35" t="s">
+        <v>106</v>
+      </c>
       <c r="Q35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="39" x14ac:dyDescent="0.15">
@@ -2151,12 +2154,12 @@
         <v>45</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="39" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>43</v>
@@ -2167,22 +2170,19 @@
       <c r="G37" t="s">
         <v>45</v>
       </c>
-      <c r="M37" t="s">
-        <v>107</v>
-      </c>
       <c r="P37" t="s">
         <v>82</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2191,12 +2191,12 @@
         <v>45</v>
       </c>
       <c r="M38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>55</v>
@@ -2208,7 +2208,7 @@
         <v>45</v>
       </c>
       <c r="M39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/uml2es/examples/hrexcel/HRExcel.xlsx
+++ b/uml2es/examples/hrexcel/HRExcel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mhavey/Documents/mike/dev/mbo_modeling/fy18q3/marklogic/uml2es/examples/hrexcel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mhavey/Documents/mike/dev/mbo_modeling/fy18q4/marklogic/uml2es/examples/hrexcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,7 +39,7 @@
     <author>Mike Havey</author>
   </authors>
   <commentList>
-    <comment ref="C19" authorId="0">
+    <comment ref="C20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0">
+    <comment ref="D20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0">
+    <comment ref="I20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
     <author>Mike Havey</author>
   </authors>
   <commentList>
-    <comment ref="C19" authorId="0">
+    <comment ref="C20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0">
+    <comment ref="D20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0">
+    <comment ref="I20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +145,7 @@
     <author>Mike Havey</author>
   </authors>
   <commentList>
-    <comment ref="C19" authorId="0">
+    <comment ref="C20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0">
+    <comment ref="D20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0">
+    <comment ref="I20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +198,7 @@
     <author>Mike Havey</author>
   </authors>
   <commentList>
-    <comment ref="C19" authorId="0">
+    <comment ref="C20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -212,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0">
+    <comment ref="D20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -228,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0">
+    <comment ref="I20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -251,7 +251,7 @@
     <author>Mike Havey</author>
   </authors>
   <commentList>
-    <comment ref="C19" authorId="0">
+    <comment ref="C20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -265,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0">
+    <comment ref="D20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -281,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0">
+    <comment ref="I20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -304,7 +304,7 @@
     <author>Mike Havey</author>
   </authors>
   <commentList>
-    <comment ref="C19" authorId="0">
+    <comment ref="C20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -318,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0">
+    <comment ref="D20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -334,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0">
+    <comment ref="I20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -352,7 +352,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="122">
   <si>
     <t>Description</t>
   </si>
@@ -462,9 +462,6 @@
     <t>SEM Property (predicate)</t>
   </si>
   <si>
-    <t xml:space="preserve">Range Index Type </t>
-  </si>
-  <si>
     <t>Cacluated By Concatenating The Following - linebreaks between</t>
   </si>
   <si>
@@ -579,9 +576,6 @@
     <t>float</t>
   </si>
   <si>
-    <t>http://www.w3.org/ns/org#OrganizationalUnit</t>
-  </si>
-  <si>
     <t>departmentId</t>
   </si>
   <si>
@@ -603,16 +597,9 @@
     <t>entityName</t>
   </si>
   <si>
-    <t>"http://www.w3.org/ns/org#d"
-departmentId</t>
-  </si>
-  <si>
     <t>Employee</t>
   </si>
   <si>
-    <t>http://xmlns.com/foaf/0.1/Agent</t>
-  </si>
-  <si>
     <t>employeeId</t>
   </si>
   <si>
@@ -670,35 +657,75 @@
     <t>memberOf</t>
   </si>
   <si>
-    <t>http://www.w3.org/ns/org#memberOf</t>
-  </si>
-  <si>
-    <t>http://xmlns.com/foaf/0.1/name</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/org#reportsTo</t>
-  </si>
-  <si>
-    <t>firstName
+    <t>empLabel</t>
+  </si>
+  <si>
+    <t>SEM Prefixes P, U (linebreaks between)</t>
+  </si>
+  <si>
+    <t>Semantic Facts - s,P,O linebreaks between</t>
+  </si>
+  <si>
+    <t>org,http://www.w3.org/ns/org#</t>
+  </si>
+  <si>
+    <t>org:OrganizationalUnit</t>
+  </si>
+  <si>
+    <t>foaf:Agent</t>
+  </si>
+  <si>
+    <t>PII (Y/N)</t>
+  </si>
+  <si>
+    <t>Elem Range Idx (Y/N)</t>
+  </si>
+  <si>
+    <t>Path Range Idx (Y/N)</t>
+  </si>
+  <si>
+    <t>Word Lex (Y/N)</t>
+  </si>
+  <si>
+    <t>SEM Qualified Object s, P, O (linebreaks between)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SEM Qualified Object s, P, O (linebreaks between)</t>
+  </si>
+  <si>
+    <t>"org:d"
+$attrib(departmentId)</t>
+  </si>
+  <si>
+    <t>"/department/"
+$attrib(departmentId)
+".xml"</t>
+  </si>
+  <si>
+    <t>"org:e"
+$attrib(employeeId)</t>
+  </si>
+  <si>
+    <t>$attrib(employeeName)</t>
+  </si>
+  <si>
+    <t>"/employee/"
+$attrib(employeeId)
+".xml"</t>
+  </si>
+  <si>
+    <t>$attrbi(firstName)
 " "
-lastName</t>
-  </si>
-  <si>
-    <t>"/employee/"
-employeeId
-".xml"</t>
-  </si>
-  <si>
-    <t>"http://www.w3.org/ns/org#e"
-employeeId</t>
-  </si>
-  <si>
-    <t>empLabel</t>
-  </si>
-  <si>
-    <t>"/department/"
-departmentId
-".xml"</t>
+$attrbi(lastName)</t>
+  </si>
+  <si>
+    <t>foaf:name</t>
+  </si>
+  <si>
+    <t>org:reportsTo</t>
+  </si>
+  <si>
+    <t>org:memberOf</t>
   </si>
 </sst>
 </file>
@@ -756,7 +783,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -799,8 +826,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -836,12 +869,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -888,6 +932,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1251,27 +1298,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1282,10 +1329,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1302,7 +1349,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1316,7 +1363,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1324,7 +1371,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1351,13 +1398,24 @@
       </c>
       <c r="B8" s="13"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="30"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1374,10 +1432,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1388,18 +1446,21 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="4.83203125" customWidth="1"/>
-    <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" customWidth="1"/>
-    <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="14" max="14" width="22.33203125" customWidth="1"/>
-    <col min="15" max="15" width="23.1640625" customWidth="1"/>
-    <col min="16" max="16" width="19.5" customWidth="1"/>
-    <col min="17" max="17" width="25" customWidth="1"/>
-    <col min="18" max="18" width="27.33203125" customWidth="1"/>
-    <col min="19" max="19" width="31.1640625" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" customWidth="1"/>
+    <col min="13" max="13" width="4.83203125" customWidth="1"/>
+    <col min="14" max="14" width="6" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" customWidth="1"/>
+    <col min="16" max="17" width="24" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" customWidth="1"/>
+    <col min="19" max="19" width="23.1640625" customWidth="1"/>
+    <col min="20" max="20" width="19.5" customWidth="1"/>
+    <col min="21" max="21" width="25" customWidth="1"/>
+    <col min="22" max="22" width="27.33203125" customWidth="1"/>
+    <col min="23" max="23" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1407,7 +1468,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1439,280 +1500,298 @@
         <v>24</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="14"/>
+      <c r="A7" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>55</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="14"/>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
       <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17"/>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="22"/>
-    </row>
-    <row r="19" spans="1:19" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.15">
-      <c r="A19" s="23" t="s">
+      <c r="B19" s="22"/>
+    </row>
+    <row r="20" spans="1:23" s="3" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+      <c r="A20" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B20" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="T20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="U20" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="V20" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="W20" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="R19" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="S19" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>45</v>
-      </c>
-      <c r="P20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
-      <c r="I21" t="s">
-        <v>45</v>
-      </c>
-      <c r="L21" t="s">
-        <v>45</v>
-      </c>
-      <c r="P21" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q21" s="3"/>
-    </row>
-    <row r="22" spans="1:19" ht="26" x14ac:dyDescent="0.15">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="T21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
       </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="39" x14ac:dyDescent="0.15">
+      <c r="L22" t="s">
+        <v>44</v>
+      </c>
+      <c r="O22" t="s">
+        <v>44</v>
+      </c>
+      <c r="T22" t="s">
+        <v>80</v>
+      </c>
+      <c r="U22" s="3"/>
+    </row>
+    <row r="23" spans="1:23" ht="26" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
       </c>
-      <c r="G23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J23" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="H23" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="39" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" t="s">
+        <v>44</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A25" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C20:C28"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C21:C29"/>
   </dataValidations>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -1723,10 +1802,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1737,18 +1816,22 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="4.83203125" customWidth="1"/>
-    <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" customWidth="1"/>
-    <col min="13" max="13" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.33203125" customWidth="1"/>
-    <col min="15" max="15" width="23.1640625" customWidth="1"/>
-    <col min="16" max="16" width="19.5" customWidth="1"/>
-    <col min="17" max="17" width="25" customWidth="1"/>
-    <col min="18" max="18" width="27.33203125" customWidth="1"/>
-    <col min="19" max="19" width="31.1640625" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" customWidth="1"/>
+    <col min="13" max="13" width="4.83203125" customWidth="1"/>
+    <col min="14" max="14" width="6" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" customWidth="1"/>
+    <col min="16" max="16" width="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.1640625" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" customWidth="1"/>
+    <col min="19" max="19" width="23.1640625" customWidth="1"/>
+    <col min="20" max="20" width="19.5" customWidth="1"/>
+    <col min="21" max="21" width="25" customWidth="1"/>
+    <col min="22" max="22" width="27.33203125" customWidth="1"/>
+    <col min="23" max="23" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1756,7 +1839,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1788,432 +1871,449 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="14"/>
+      <c r="A7" s="16" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>84</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="14"/>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
       <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17"/>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="22"/>
-    </row>
-    <row r="19" spans="1:19" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.15">
-      <c r="A19" s="23" t="s">
+      <c r="B19" s="22"/>
+    </row>
+    <row r="20" spans="1:23" s="3" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+      <c r="A20" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B20" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G20" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="I20" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="T20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="U20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="19" t="s">
+      <c r="V20" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="19" t="s">
+      <c r="W20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="S19" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" t="s">
-        <v>65</v>
-      </c>
-      <c r="P20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="1"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="5"/>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="T21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
       </c>
-      <c r="F22" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q22" s="3"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+      <c r="U23" s="3"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A25" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="26" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="s">
-        <v>45</v>
-      </c>
-      <c r="K34" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="26" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="G35" t="s">
-        <v>45</v>
-      </c>
-      <c r="L35" t="s">
-        <v>45</v>
-      </c>
-      <c r="M35" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q35" t="s">
+      <c r="H35" t="s">
+        <v>44</v>
+      </c>
+      <c r="N35" t="s">
+        <v>44</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" ht="39" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="G36" t="s">
-        <v>45</v>
-      </c>
-      <c r="J36" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q36" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="39" x14ac:dyDescent="0.15">
+      <c r="H36" t="s">
+        <v>44</v>
+      </c>
+      <c r="O36" t="s">
+        <v>44</v>
+      </c>
+      <c r="P36" t="s">
+        <v>119</v>
+      </c>
+      <c r="U36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="39" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="G37" t="s">
-        <v>45</v>
-      </c>
-      <c r="P37" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q37" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H37" t="s">
+        <v>44</v>
+      </c>
+      <c r="M37" t="s">
+        <v>44</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="39" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="G38" t="s">
-        <v>45</v>
-      </c>
-      <c r="M38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>44</v>
+      </c>
+      <c r="T38" t="s">
+        <v>80</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
-      <c r="G39" t="s">
-        <v>45</v>
-      </c>
-      <c r="M39" t="s">
-        <v>105</v>
+      <c r="H39" t="s">
+        <v>44</v>
+      </c>
+      <c r="P39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>44</v>
+      </c>
+      <c r="P40" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C20:C26"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C21:C27"/>
   </dataValidations>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -2224,10 +2324,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2238,18 +2338,21 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="4.83203125" customWidth="1"/>
-    <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" customWidth="1"/>
-    <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="14" max="14" width="22.33203125" customWidth="1"/>
-    <col min="15" max="15" width="23.1640625" customWidth="1"/>
-    <col min="16" max="16" width="19.5" customWidth="1"/>
-    <col min="17" max="17" width="25" customWidth="1"/>
-    <col min="18" max="18" width="27.33203125" customWidth="1"/>
-    <col min="19" max="19" width="31.1640625" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" customWidth="1"/>
+    <col min="13" max="13" width="4.83203125" customWidth="1"/>
+    <col min="14" max="14" width="6" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" customWidth="1"/>
+    <col min="16" max="17" width="24" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" customWidth="1"/>
+    <col min="19" max="19" width="23.1640625" customWidth="1"/>
+    <col min="20" max="20" width="19.5" customWidth="1"/>
+    <col min="21" max="21" width="25" customWidth="1"/>
+    <col min="22" max="22" width="27.33203125" customWidth="1"/>
+    <col min="23" max="23" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2257,7 +2360,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2291,279 +2394,298 @@
       <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="14"/>
+      <c r="A7" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="14"/>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
       <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17"/>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="22"/>
-    </row>
-    <row r="19" spans="1:19" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.15">
-      <c r="A19" s="23" t="s">
+      <c r="B19" s="22"/>
+    </row>
+    <row r="20" spans="1:23" s="3" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+      <c r="A20" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B20" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G20" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="I20" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="T20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="U20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="19" t="s">
+      <c r="V20" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="19" t="s">
+      <c r="W20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="S19" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" t="s">
-        <v>65</v>
-      </c>
-      <c r="K21" t="s">
-        <v>65</v>
-      </c>
-      <c r="L21" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" t="s">
-        <v>65</v>
-      </c>
-      <c r="M22" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="P22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H22" t="s">
+        <v>64</v>
+      </c>
+      <c r="N22" t="s">
+        <v>64</v>
+      </c>
+      <c r="O22" t="s">
+        <v>64</v>
+      </c>
+      <c r="U22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" t="s">
+        <v>64</v>
+      </c>
+      <c r="P23" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q23" s="26"/>
+      <c r="T23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C20:C28"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C21:C29"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="M22" r:id="rId1" display="http://preddie"/>
+    <hyperlink ref="P23" r:id="rId1" display="http://preddie"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
@@ -2573,10 +2695,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2587,18 +2709,21 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="4.83203125" customWidth="1"/>
-    <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" customWidth="1"/>
-    <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="14" max="14" width="22.33203125" customWidth="1"/>
-    <col min="15" max="15" width="23.1640625" customWidth="1"/>
-    <col min="16" max="16" width="19.5" customWidth="1"/>
-    <col min="17" max="17" width="25" customWidth="1"/>
-    <col min="18" max="18" width="27.33203125" customWidth="1"/>
-    <col min="19" max="19" width="31.1640625" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" customWidth="1"/>
+    <col min="13" max="13" width="4.83203125" customWidth="1"/>
+    <col min="14" max="14" width="6" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" customWidth="1"/>
+    <col min="16" max="17" width="24" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" customWidth="1"/>
+    <col min="19" max="19" width="23.1640625" customWidth="1"/>
+    <col min="20" max="20" width="19.5" customWidth="1"/>
+    <col min="21" max="21" width="25" customWidth="1"/>
+    <col min="22" max="22" width="27.33203125" customWidth="1"/>
+    <col min="23" max="23" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2606,7 +2731,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2614,7 +2739,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2640,253 +2765,269 @@
         <v>24</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="14"/>
+      <c r="A7" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>65</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="14"/>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
       <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17"/>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="22"/>
-    </row>
-    <row r="19" spans="1:19" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.15">
-      <c r="A19" s="23" t="s">
+      <c r="B19" s="22"/>
+    </row>
+    <row r="20" spans="1:23" s="3" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+      <c r="A20" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B20" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G20" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="I20" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="T20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="U20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="19" t="s">
+      <c r="V20" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="19" t="s">
+      <c r="W20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="S19" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>65</v>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
-      <c r="K21" t="s">
-        <v>65</v>
-      </c>
-      <c r="L21" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" t="s">
-        <v>65</v>
-      </c>
-      <c r="M22" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="P22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>64</v>
+      </c>
+      <c r="O22" t="s">
+        <v>64</v>
+      </c>
+      <c r="U22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A23" s="7"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" t="s">
+        <v>64</v>
+      </c>
+      <c r="P23" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q23" s="26"/>
+      <c r="T23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A25" s="4"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C20:C28"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C21:C29"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="M22" r:id="rId1" display="http://preddie"/>
+    <hyperlink ref="P23" r:id="rId1" display="http://preddie"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
@@ -2896,10 +3037,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2910,18 +3051,21 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="4.83203125" customWidth="1"/>
-    <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" customWidth="1"/>
-    <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="14" max="14" width="22.33203125" customWidth="1"/>
-    <col min="15" max="15" width="23.1640625" customWidth="1"/>
-    <col min="16" max="16" width="19.5" customWidth="1"/>
-    <col min="17" max="17" width="25" customWidth="1"/>
-    <col min="18" max="18" width="27.33203125" customWidth="1"/>
-    <col min="19" max="19" width="31.1640625" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" customWidth="1"/>
+    <col min="13" max="13" width="4.83203125" customWidth="1"/>
+    <col min="14" max="14" width="6" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" customWidth="1"/>
+    <col min="16" max="17" width="24" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" customWidth="1"/>
+    <col min="19" max="19" width="23.1640625" customWidth="1"/>
+    <col min="20" max="20" width="19.5" customWidth="1"/>
+    <col min="21" max="21" width="25" customWidth="1"/>
+    <col min="22" max="22" width="27.33203125" customWidth="1"/>
+    <col min="23" max="23" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2929,7 +3073,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2963,248 +3107,267 @@
       <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="14"/>
+      <c r="A7" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="14"/>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
       <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17"/>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="22"/>
-    </row>
-    <row r="19" spans="1:19" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.15">
-      <c r="A19" s="23" t="s">
+      <c r="B19" s="22"/>
+    </row>
+    <row r="20" spans="1:23" s="3" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+      <c r="A20" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B20" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G20" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="I20" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="T20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="U20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="19" t="s">
+      <c r="V20" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="19" t="s">
+      <c r="W20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="S19" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>65</v>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
-      <c r="G21" t="s">
-        <v>65</v>
-      </c>
-      <c r="K21" t="s">
-        <v>65</v>
-      </c>
-      <c r="L21" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" t="s">
-        <v>65</v>
-      </c>
-      <c r="M22" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="P22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>64</v>
+      </c>
+      <c r="N22" t="s">
+        <v>64</v>
+      </c>
+      <c r="O22" t="s">
+        <v>64</v>
+      </c>
+      <c r="U22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A23" s="7"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" t="s">
+        <v>64</v>
+      </c>
+      <c r="P23" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q23" s="26"/>
+      <c r="T23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A25" s="4"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C20:C28"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C21:C29"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="M22" r:id="rId1" display="http://preddie"/>
+    <hyperlink ref="P23" r:id="rId1" display="http://preddie"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
@@ -3214,10 +3377,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3228,18 +3391,22 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="4.83203125" customWidth="1"/>
-    <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" customWidth="1"/>
-    <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="14" max="14" width="22.33203125" customWidth="1"/>
-    <col min="15" max="15" width="23.1640625" customWidth="1"/>
-    <col min="16" max="16" width="19.5" customWidth="1"/>
-    <col min="17" max="17" width="25" customWidth="1"/>
-    <col min="18" max="18" width="27.33203125" customWidth="1"/>
-    <col min="19" max="19" width="31.1640625" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" customWidth="1"/>
+    <col min="13" max="13" width="4.83203125" customWidth="1"/>
+    <col min="14" max="14" width="6" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" customWidth="1"/>
+    <col min="16" max="16" width="24" customWidth="1"/>
+    <col min="17" max="17" width="19.1640625" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" customWidth="1"/>
+    <col min="19" max="19" width="23.1640625" customWidth="1"/>
+    <col min="20" max="20" width="19.5" customWidth="1"/>
+    <col min="21" max="21" width="25" customWidth="1"/>
+    <col min="22" max="22" width="27.33203125" customWidth="1"/>
+    <col min="23" max="23" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3247,7 +3414,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3281,253 +3448,271 @@
       <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="14"/>
+      <c r="A7" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="14"/>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
       <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17"/>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="22"/>
-    </row>
-    <row r="19" spans="1:19" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.15">
-      <c r="A19" s="23" t="s">
+      <c r="B19" s="22"/>
+    </row>
+    <row r="20" spans="1:23" s="3" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+      <c r="A20" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B20" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G20" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="I20" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="T20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="U20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="19" t="s">
+      <c r="V20" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="19" t="s">
+      <c r="W20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="S19" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
-      <c r="G21" t="s">
-        <v>65</v>
-      </c>
-      <c r="K21" t="s">
-        <v>65</v>
-      </c>
-      <c r="L21" t="s">
-        <v>65</v>
-      </c>
-      <c r="P21" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" t="s">
-        <v>65</v>
-      </c>
-      <c r="M22" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="P22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>64</v>
+      </c>
+      <c r="N22" t="s">
+        <v>64</v>
+      </c>
+      <c r="O22" t="s">
+        <v>64</v>
+      </c>
+      <c r="T22" t="s">
+        <v>64</v>
+      </c>
+      <c r="U22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A23" s="7"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" t="s">
+        <v>64</v>
+      </c>
+      <c r="P23" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="T23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A25" s="4"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C20:C28"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C21:C29"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="M22" r:id="rId1" display="http://preddie"/>
+    <hyperlink ref="P23" r:id="rId1" display="http://preddie"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>

--- a/uml2es/examples/hrexcel/HRExcel.xlsx
+++ b/uml2es/examples/hrexcel/HRExcel.xlsx
@@ -693,39 +693,39 @@
     <t xml:space="preserve"> SEM Qualified Object s, P, O (linebreaks between)</t>
   </si>
   <si>
+    <t>foaf:name</t>
+  </si>
+  <si>
+    <t>org:reportsTo</t>
+  </si>
+  <si>
+    <t>org:memberOf</t>
+  </si>
+  <si>
     <t>"org:d"
-$attrib(departmentId)</t>
+$attribute(departmentId)</t>
   </si>
   <si>
     <t>"/department/"
-$attrib(departmentId)
+$attribute(departmentId)
 ".xml"</t>
   </si>
   <si>
     <t>"org:e"
-$attrib(employeeId)</t>
-  </si>
-  <si>
-    <t>$attrib(employeeName)</t>
+$attribute(employeeId)</t>
+  </si>
+  <si>
+    <t>$attribute(employeeName)</t>
   </si>
   <si>
     <t>"/employee/"
-$attrib(employeeId)
+$attribute(employeeId)
 ".xml"</t>
   </si>
   <si>
-    <t>$attrbi(firstName)
+    <t>$attribute(firstName)
 " "
-$attrbi(lastName)</t>
-  </si>
-  <si>
-    <t>foaf:name</t>
-  </si>
-  <si>
-    <t>org:reportsTo</t>
-  </si>
-  <si>
-    <t>org:memberOf</t>
+$attribute(lastName)</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1434,7 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="L4" workbookViewId="0">
       <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
@@ -1712,7 +1712,7 @@
         <v>44</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="39" x14ac:dyDescent="0.15">
@@ -1733,7 +1733,7 @@
         <v>44</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>64</v>
@@ -1804,8 +1804,8 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="U39" sqref="U39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2211,7 +2211,7 @@
         <v>44</v>
       </c>
       <c r="U35" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.15">
@@ -2231,10 +2231,10 @@
         <v>44</v>
       </c>
       <c r="P36" t="s">
+        <v>113</v>
+      </c>
+      <c r="U36" t="s">
         <v>119</v>
-      </c>
-      <c r="U36" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="39" x14ac:dyDescent="0.15">
@@ -2254,7 +2254,7 @@
         <v>44</v>
       </c>
       <c r="U37" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="39" x14ac:dyDescent="0.15">
@@ -2274,7 +2274,7 @@
         <v>80</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.15">
@@ -2291,7 +2291,7 @@
         <v>44</v>
       </c>
       <c r="P39" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.15">
@@ -2308,7 +2308,7 @@
         <v>44</v>
       </c>
       <c r="P40" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
